--- a/biology/Médecine/Institut_américain_pour_la_recherche_contre_le_cancer/Institut_américain_pour_la_recherche_contre_le_cancer.xlsx
+++ b/biology/Médecine/Institut_américain_pour_la_recherche_contre_le_cancer/Institut_américain_pour_la_recherche_contre_le_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_am%C3%A9ricain_pour_la_recherche_contre_le_cancer</t>
+          <t>Institut_américain_pour_la_recherche_contre_le_cancer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'American Institute for Cancer Research (AICR) est une grande organisation américaine de recherche sur le cancer associée à l'organisation faîtière du Fonds mondial de recherche contre le cancer.
-En 2018, l'organisme de bienfaisance a une note « une étoile » de Charity Navigator, avec un score de 62,81 sur 100[1]. Au moment de leur évaluation, plus de 45 % des revenus de l'organisme de bienfaisance se sont transformés en dépenses de collecte de fonds. Pour l'exercice se terminant en septembre 2018, l'organisation a réalisé des revenus annuels de 15,5 millions de dollars[2].
+En 2018, l'organisme de bienfaisance a une note « une étoile » de Charity Navigator, avec un score de 62,81 sur 100. Au moment de leur évaluation, plus de 45 % des revenus de l'organisme de bienfaisance se sont transformés en dépenses de collecte de fonds. Pour l'exercice se terminant en septembre 2018, l'organisation a réalisé des revenus annuels de 15,5 millions de dollars.
 </t>
         </is>
       </c>
